--- a/script/Pr_temp_spreadsheets/05_00_ARC05INTERLUDE.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05INTERLUDE.xlsx
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81b4cd85-0eb0-4dd3-bc02-b10fce1745cd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dcbaacd4-3887-4eb5-b217-9f17e781a1d8}">
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5473d49a-5cbc-4411-a264-5ad1e6f52e5d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bb451c9a-fcb8-4300-aacd-8a02f69529cb}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
